--- a/tests/end_to_end/Testcases.xlsx
+++ b/tests/end_to_end/Testcases.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e68e9f8f96b65ab7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1218" documentId="8_{DF30D458-DD4E-41AA-A417-28673D0AB157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7FB8DC-9136-435C-BF9C-347B92E92EFC}"/>
+  <xr:revisionPtr revIDLastSave="1222" documentId="8_{DF30D458-DD4E-41AA-A417-28673D0AB157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B814331-1A53-46D2-AD7C-15D5A171AC9B}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{DD8363CD-C52C-401B-B41D-C837F6C613DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DD8363CD-C52C-401B-B41D-C837F6C613DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Testcase" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin_Testcase" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard_TestCase" sheetId="3" r:id="rId2"/>
+    <sheet name="Admin_Testcase" sheetId="2" r:id="rId3"/>
+    <sheet name="PIM_Testcase" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="531">
   <si>
     <t>Login functionality</t>
   </si>
@@ -1166,12 +1168,616 @@
   <si>
     <t>Username: @@@@@                   Password: *****</t>
   </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Piyush Mujmule</t>
+  </si>
+  <si>
+    <t>To test  that Dashboard page loads after successful login</t>
+  </si>
+  <si>
+    <t>User should be logged in</t>
+  </si>
+  <si>
+    <t>1. Observe the landing page</t>
+  </si>
+  <si>
+    <t>Dashboard page should be displayed</t>
+  </si>
+  <si>
+    <t>To test  Dashboard URL after login</t>
+  </si>
+  <si>
+    <t>User should be logged in successfully</t>
+  </si>
+  <si>
+    <t>1. Check the browser address bar</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>URL should contain '/dashboard' indicating Dashboard page</t>
+  </si>
+  <si>
+    <t>To test  Dashboard page title</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe the page title displayed on the browser tab</t>
+  </si>
+  <si>
+    <t>Dashboard page title should be displayed correctly</t>
+  </si>
+  <si>
+    <t>To test  Dashboard header is visible</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe the top section of the Dashboard page</t>
+  </si>
+  <si>
+    <t>Dashboard header should be clearly visible</t>
+  </si>
+  <si>
+    <t>To test  user profile icon visibility on Dashboard</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Look at the top-right corner of the Dashboard page</t>
+  </si>
+  <si>
+    <t>User profile icon should be visible</t>
+  </si>
+  <si>
+    <t>To test  Dashboard widgets section is displayed</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Scroll down if required
+3. Observe the widgets area on Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard widgets section should be displayed</t>
+  </si>
+  <si>
+    <t>To test  at least one widget is displayed on Dashboard</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe the Dashboard widgets</t>
+  </si>
+  <si>
+    <t>At least one widget should be displayed on Dashboard</t>
+  </si>
+  <si>
+    <t>To test  Dashboard page behavior on refresh</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Refresh the browser page
+3. Observe the current page</t>
+  </si>
+  <si>
+    <t>User should remain on Dashboard page after refresh</t>
+  </si>
+  <si>
+    <t>To test  Dashboard does not show any error message on refresh</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Refresh the page
+3. Observe for any error messages</t>
+  </si>
+  <si>
+    <t>No error message should be displayed on Dashboard</t>
+  </si>
+  <si>
+    <t>To test  Dashboard page loads within acceptable time</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe the time taken for Dashboard to load completely</t>
+  </si>
+  <si>
+    <t>Dashboard should load within acceptable response time</t>
+  </si>
+  <si>
+    <t>To test  Dashboard elements are visible after page refresh</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Refresh the page
+3. Verify all key Dashboard elements</t>
+  </si>
+  <si>
+    <t>All Dashboard elements should be visible after refresh</t>
+  </si>
+  <si>
+    <t>To test  no error or warning message on Dashboard page</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Carefully observe the Dashboard page</t>
+  </si>
+  <si>
+    <t>Dashboard page should not display any error or warning message</t>
+  </si>
+  <si>
+    <t>To test  Dashboard page scroll functionality</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Scroll the page up and down</t>
+  </si>
+  <si>
+    <t>Dashboard page should scroll smoothly</t>
+  </si>
+  <si>
+    <t>To test  Dashboard widgets are clickable</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Click on any Dashboard widget</t>
+  </si>
+  <si>
+    <t>Widget should respond to the click action</t>
+  </si>
+  <si>
+    <t>To test  Dashboard stability on multiple refresh</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Refresh the page multiple times</t>
+  </si>
+  <si>
+    <t>Dashboard should remain stable without breaking</t>
+  </si>
+  <si>
+    <t>To test  Dashboard UI alignment</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe the alignment of Dashboard elements</t>
+  </si>
+  <si>
+    <t>All UI elements should be properly aligned</t>
+  </si>
+  <si>
+    <t>To test  Dashboard text readability</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe text and fonts on Dashboard</t>
+  </si>
+  <si>
+    <t>All text should be readable and clear</t>
+  </si>
+  <si>
+    <t>To test  Dashboard loads without console errors</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Open browser developer console
+3. Check for any errors</t>
+  </si>
+  <si>
+    <t>No console errors should be present</t>
+  </si>
+  <si>
+    <t>To test  Dashboard layout on browser window resize</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Resize the browser window
+3. Observe the Dashboard layout</t>
+  </si>
+  <si>
+    <t>Dashboard layout should adjust properly</t>
+  </si>
+  <si>
+    <t>To test  Dashboard page does not show broken UI components</t>
+  </si>
+  <si>
+    <t>1. Login to the application
+2. Observe the entire Dashboard page</t>
+  </si>
+  <si>
+    <t>No broken or distorted UI elements should be visible</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>To test PIM menu is visible after login</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>1. Login to application                      2. Observe left side menu</t>
+  </si>
+  <si>
+    <t>Valid user</t>
+  </si>
+  <si>
+    <t>PIM menu should be visible</t>
+  </si>
+  <si>
+    <t>To test navigation to PIM page</t>
+  </si>
+  <si>
+    <t>1. Click on PIM menu</t>
+  </si>
+  <si>
+    <t>User should navigate to PIM page</t>
+  </si>
+  <si>
+    <t>To test PIM page URL</t>
+  </si>
+  <si>
+    <t>User on PIM page</t>
+  </si>
+  <si>
+    <t>1. Check browser URL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URL should contain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/pim</t>
+    </r>
+  </si>
+  <si>
+    <t>To test PIM page title</t>
+  </si>
+  <si>
+    <t>1. Observe browser tab title</t>
+  </si>
+  <si>
+    <t>PIM page title should be correct</t>
+  </si>
+  <si>
+    <t>To test PIM page header</t>
+  </si>
+  <si>
+    <t>1. Observe page header</t>
+  </si>
+  <si>
+    <t>PIM header should be displayed</t>
+  </si>
+  <si>
+    <t>To test Add Employee button visibility</t>
+  </si>
+  <si>
+    <t>1. Observe top section</t>
+  </si>
+  <si>
+    <t>Add Employee button should be visible</t>
+  </si>
+  <si>
+    <t>To test clicking Add Employee button</t>
+  </si>
+  <si>
+    <t>1. Click Add Employee</t>
+  </si>
+  <si>
+    <t>Add Employee page should open</t>
+  </si>
+  <si>
+    <t>To test Employee List tab visibility</t>
+  </si>
+  <si>
+    <t>1. Observe tabs</t>
+  </si>
+  <si>
+    <t>Employee List tab should be visible</t>
+  </si>
+  <si>
+    <t>To test search section visibility</t>
+  </si>
+  <si>
+    <t>1. Observe search area</t>
+  </si>
+  <si>
+    <t>Search fields should be visible</t>
+  </si>
+  <si>
+    <t>To test search with valid employee name</t>
+  </si>
+  <si>
+    <t>Employee exists</t>
+  </si>
+  <si>
+    <t>1. Enter valid name                   2. Click Search</t>
+  </si>
+  <si>
+    <t>Valid name</t>
+  </si>
+  <si>
+    <t>Matching employee should display</t>
+  </si>
+  <si>
+    <t>To test search with invalid employee name</t>
+  </si>
+  <si>
+    <t>1. Enter invalid name                2. Click Search</t>
+  </si>
+  <si>
+    <t>Invalid name</t>
+  </si>
+  <si>
+    <t>No records found message</t>
+  </si>
+  <si>
+    <t>To test search with employee ID</t>
+  </si>
+  <si>
+    <t>1. Enter employee ID                 2. Click Search</t>
+  </si>
+  <si>
+    <t>Valid ID</t>
+  </si>
+  <si>
+    <t>Correct employee record shown</t>
+  </si>
+  <si>
+    <t>To test search using employment status</t>
+  </si>
+  <si>
+    <t>1. Select status                            2. Click Search</t>
+  </si>
+  <si>
+    <t>Status value</t>
+  </si>
+  <si>
+    <t>Filtered results displayed</t>
+  </si>
+  <si>
+    <t>To test search using multiple filters</t>
+  </si>
+  <si>
+    <t>1. Apply multiple filters             2. Search</t>
+  </si>
+  <si>
+    <t>Combined data</t>
+  </si>
+  <si>
+    <t>Matching records shown</t>
+  </si>
+  <si>
+    <t>To test Reset button functionality</t>
+  </si>
+  <si>
+    <t>Search performed</t>
+  </si>
+  <si>
+    <t>1. Click Reset</t>
+  </si>
+  <si>
+    <t>Search fields reset</t>
+  </si>
+  <si>
+    <t>To test employee list table visibility</t>
+  </si>
+  <si>
+    <t>1. Observe list section</t>
+  </si>
+  <si>
+    <t>Employee table visible</t>
+  </si>
+  <si>
+    <t>To test employee table column headers</t>
+  </si>
+  <si>
+    <t>1. Observe table headers</t>
+  </si>
+  <si>
+    <t>All headers visible</t>
+  </si>
+  <si>
+    <t>To test clicking employee record</t>
+  </si>
+  <si>
+    <t>1. Click employee row</t>
+  </si>
+  <si>
+    <t>Employee details page opens</t>
+  </si>
+  <si>
+    <t>To test pagination functionality</t>
+  </si>
+  <si>
+    <t>Multiple records</t>
+  </si>
+  <si>
+    <t>1. Use pagination controls</t>
+  </si>
+  <si>
+    <t>Pagination works correctly</t>
+  </si>
+  <si>
+    <t>To test table sorting by employee name</t>
+  </si>
+  <si>
+    <t>Records exist</t>
+  </si>
+  <si>
+    <t>1. Click column header</t>
+  </si>
+  <si>
+    <t>Records sorted correctly</t>
+  </si>
+  <si>
+    <t>To test No Records Found message</t>
+  </si>
+  <si>
+    <t>No matching data</t>
+  </si>
+  <si>
+    <t>1. Perform empty search</t>
+  </si>
+  <si>
+    <t>Invalid data</t>
+  </si>
+  <si>
+    <t>No Records Found displayed</t>
+  </si>
+  <si>
+    <t>To test page behavior on refresh</t>
+  </si>
+  <si>
+    <t>1. Refresh browser</t>
+  </si>
+  <si>
+    <t>User remains on PIM page</t>
+  </si>
+  <si>
+    <t>To test Add Employee mandatory fields</t>
+  </si>
+  <si>
+    <t>On Add Employee page</t>
+  </si>
+  <si>
+    <t>1. Submit empty form</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Validation messages shown</t>
+  </si>
+  <si>
+    <t>To test Add Employee with valid data</t>
+  </si>
+  <si>
+    <t>1. Enter valid data                        2. Save</t>
+  </si>
+  <si>
+    <t>Valid employee</t>
+  </si>
+  <si>
+    <t>Employee added successfully</t>
+  </si>
+  <si>
+    <t>To test Add Employee with invalid data</t>
+  </si>
+  <si>
+    <t>1. Enter invalid data</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>To test Cancel button on Add Employee</t>
+  </si>
+  <si>
+    <t>1. Click Cancel</t>
+  </si>
+  <si>
+    <t>Navigate back to PIM page</t>
+  </si>
+  <si>
+    <t>To test duplicate employee addition</t>
+  </si>
+  <si>
+    <t>1. Add same employee again</t>
+  </si>
+  <si>
+    <t>Duplicate data</t>
+  </si>
+  <si>
+    <t>Duplicate warning shown</t>
+  </si>
+  <si>
+    <t>To test success message after adding employee</t>
+  </si>
+  <si>
+    <t>Employee added</t>
+  </si>
+  <si>
+    <t>1. Observe message</t>
+  </si>
+  <si>
+    <t>Success message displayed</t>
+  </si>
+  <si>
+    <t>To test employee count updates</t>
+  </si>
+  <si>
+    <t>1. Observe employee list</t>
+  </si>
+  <si>
+    <t>Count should update</t>
+  </si>
+  <si>
+    <t>To test PIM page load time</t>
+  </si>
+  <si>
+    <t>1. Navigate to PIM</t>
+  </si>
+  <si>
+    <t>Page loads within acceptable time</t>
+  </si>
+  <si>
+    <t>To test no error message on PIM page</t>
+  </si>
+  <si>
+    <t>1. Observe page</t>
+  </si>
+  <si>
+    <t>No error message displayed</t>
+  </si>
+  <si>
+    <t>To test page scroll functionality</t>
+  </si>
+  <si>
+    <t>1. Scroll page</t>
+  </si>
+  <si>
+    <t>Page scrolls smoothly</t>
+  </si>
+  <si>
+    <t>To test UI alignment on PIM page</t>
+  </si>
+  <si>
+    <t>1. Observe UI layout</t>
+  </si>
+  <si>
+    <t>UI properly aligned</t>
+  </si>
+  <si>
+    <t>To test text readability on PIM page</t>
+  </si>
+  <si>
+    <t>1. Observe fonts/text</t>
+  </si>
+  <si>
+    <t>Text readable</t>
+  </si>
+  <si>
+    <t>To test PIM page stability on multiple refresh</t>
+  </si>
+  <si>
+    <t>1. Refresh page multiple times</t>
+  </si>
+  <si>
+    <t>Page remains stable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,6 +1814,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1241,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1290,6 +1901,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,7 +2232,7 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
@@ -1627,7 +2244,7 @@
     <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -1635,7 +2252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>72</v>
       </c>
@@ -1643,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1651,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +2276,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1667,23 +2284,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +2326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="100.8">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1735,7 +2352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="100.8">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1758,7 +2375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="100.8">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +2398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="100.8">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1804,7 +2421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="72">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1830,7 +2447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="72">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1856,7 +2473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="57.6">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1882,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="100.8">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -1908,7 +2525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="100.8">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +2551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="100.8">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1960,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="100.8">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1986,7 +2603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="100.8">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -2009,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="100.8">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2035,7 +2652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="100.8">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2058,7 +2675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="100.8">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -2084,7 +2701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="100.8">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2110,7 +2727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="100.8">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -2133,7 +2750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="100.8">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -2159,7 +2776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="100.8">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2185,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="100.8">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2215,14 +2832,700 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB9379-31F7-4C79-9904-9D1D20A4B2EC}">
+  <dimension ref="A2:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8">
+      <c r="A12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2">
+      <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2">
+      <c r="A14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="43.2">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2">
+      <c r="A16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="57.6">
+      <c r="A17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8">
+      <c r="A18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="43.2">
+      <c r="A19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="43.2">
+      <c r="A20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="43.2">
+      <c r="A21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="43.2">
+      <c r="A22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="43.2">
+      <c r="A23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8">
+      <c r="A24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8">
+      <c r="A25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8">
+      <c r="A26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="43.2">
+      <c r="A27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.2">
+      <c r="A28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="43.2">
+      <c r="A29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="43.2">
+      <c r="A30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="43.2">
+      <c r="A31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708F9970-DBDC-4D18-ADE0-1132D8D51E94}">
   <dimension ref="A2:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" customWidth="1"/>
@@ -2234,7 +3537,7 @@
     <col min="8" max="8" width="17.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -2242,7 +3545,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +3561,7 @@
         <v>46045</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -2266,27 +3569,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
@@ -2294,7 +3597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +3623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="57.6">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +3649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="57.6">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +3675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="57.6">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2398,7 +3701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="57.6">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -2424,7 +3727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="57.6">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +3750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="57.6">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2473,7 +3776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="57.6">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -2499,7 +3802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="57.6">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -2525,7 +3828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="72">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2551,7 +3854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="72">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2577,7 +3880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="72">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -2603,7 +3906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="57.6">
       <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
@@ -2626,7 +3929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="72">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2652,7 +3955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="57.6">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -2675,7 +3978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="57.6">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -2698,7 +4001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="100.8">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2724,7 +4027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="100.8">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -2747,7 +4050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="100.8">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2773,7 +4076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="129.6">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -2799,7 +4102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="57.6">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2825,7 +4128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="57.6">
       <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
@@ -2851,7 +4154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="72">
       <c r="A35" s="2" t="s">
         <v>130</v>
       </c>
@@ -2874,7 +4177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="72">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
@@ -2900,11 +4203,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>72</v>
       </c>
@@ -2912,11 +4215,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="57.6">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -2942,7 +4245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="57.6">
       <c r="A41" s="2" t="s">
         <v>146</v>
       </c>
@@ -2968,7 +4271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="57.6">
       <c r="A42" s="2" t="s">
         <v>150</v>
       </c>
@@ -2991,7 +4294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="57.6">
       <c r="A43" s="2" t="s">
         <v>152</v>
       </c>
@@ -3014,7 +4317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="129.6">
       <c r="A44" s="2" t="s">
         <v>153</v>
       </c>
@@ -3040,11 +4343,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="8" t="s">
         <v>72</v>
       </c>
@@ -3052,11 +4355,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="230.4">
       <c r="A48" s="2" t="s">
         <v>156</v>
       </c>
@@ -3082,7 +4385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="72">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -3108,7 +4411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="72">
       <c r="A50" s="2" t="s">
         <v>193</v>
       </c>
@@ -3134,11 +4437,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
         <v>72</v>
       </c>
@@ -3146,11 +4449,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="72">
       <c r="A54" s="2" t="s">
         <v>194</v>
       </c>
@@ -3176,7 +4479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="72">
       <c r="A55" s="2" t="s">
         <v>195</v>
       </c>
@@ -3199,11 +4502,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
         <v>72</v>
       </c>
@@ -3211,11 +4514,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="86.4">
       <c r="A59" s="2" t="s">
         <v>209</v>
       </c>
@@ -3241,11 +4544,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="16" t="s">
         <v>71</v>
       </c>
@@ -3253,7 +4556,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="8" t="s">
         <v>72</v>
       </c>
@@ -3261,11 +4564,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="72">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3291,7 +4594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="72">
       <c r="A65" s="2" t="s">
         <v>24</v>
       </c>
@@ -3317,7 +4620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="72">
       <c r="A66" s="2" t="s">
         <v>28</v>
       </c>
@@ -3343,11 +4646,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="12" t="s">
         <v>72</v>
       </c>
@@ -3355,11 +4658,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="86.4">
       <c r="A70" s="2" t="s">
         <v>31</v>
       </c>
@@ -3385,7 +4688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="72">
       <c r="A71" s="2" t="s">
         <v>35</v>
       </c>
@@ -3408,11 +4711,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="12" t="s">
         <v>72</v>
       </c>
@@ -3420,11 +4723,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="2"/>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="86.4">
       <c r="A75" s="2" t="s">
         <v>39</v>
       </c>
@@ -3447,7 +4750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="72">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
@@ -3467,11 +4770,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="15" t="s">
         <v>71</v>
       </c>
@@ -3479,7 +4782,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="12" t="s">
         <v>72</v>
       </c>
@@ -3487,11 +4790,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="2"/>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="72">
       <c r="A81" s="2" t="s">
         <v>48</v>
       </c>
@@ -3517,7 +4820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="72">
       <c r="A82" s="2" t="s">
         <v>50</v>
       </c>
@@ -3540,7 +4843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="72">
       <c r="A83" s="2" t="s">
         <v>51</v>
       </c>
@@ -3566,7 +4869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="100.8">
       <c r="A84" s="2" t="s">
         <v>53</v>
       </c>
@@ -3592,11 +4895,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="2"/>
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="12" t="s">
         <v>72</v>
       </c>
@@ -3604,11 +4907,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="86.4">
       <c r="A88" s="2" t="s">
         <v>54</v>
       </c>
@@ -3634,7 +4937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="115.2">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3657,11 +4960,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="12" t="s">
         <v>72</v>
       </c>
@@ -3669,11 +4972,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="86.4">
       <c r="A93" s="2" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +4999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="72">
       <c r="A94" s="2" t="s">
         <v>59</v>
       </c>
@@ -3716,11 +5019,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="15" t="s">
         <v>71</v>
       </c>
@@ -3728,7 +5031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="12" t="s">
         <v>72</v>
       </c>
@@ -3736,11 +5039,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="2"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="72">
       <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
@@ -3766,7 +5069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="72">
       <c r="A100" s="2" t="s">
         <v>63</v>
       </c>
@@ -3792,7 +5095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="72">
       <c r="A101" s="2" t="s">
         <v>65</v>
       </c>
@@ -3818,11 +5121,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="2"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="12" t="s">
         <v>72</v>
       </c>
@@ -3830,11 +5133,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="2"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="86.4">
       <c r="A105" s="2" t="s">
         <v>67</v>
       </c>
@@ -3860,11 +5163,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="2"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="12" t="s">
         <v>72</v>
       </c>
@@ -3872,11 +5175,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="2"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="100.8">
       <c r="A109" s="2" t="s">
         <v>69</v>
       </c>
@@ -3899,7 +5202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="72">
       <c r="A110" s="2" t="s">
         <v>129</v>
       </c>
@@ -3919,11 +5222,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="2"/>
       <c r="B111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="15" t="s">
         <v>71</v>
       </c>
@@ -3931,7 +5234,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="12" t="s">
         <v>72</v>
       </c>
@@ -3939,11 +5242,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="2"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="72">
       <c r="A115" s="2" t="s">
         <v>130</v>
       </c>
@@ -3969,7 +5272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="72">
       <c r="A116" s="2" t="s">
         <v>131</v>
       </c>
@@ -3995,7 +5298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="72">
       <c r="A117" s="2" t="s">
         <v>132</v>
       </c>
@@ -4021,13 +5324,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="12" t="s">
         <v>72</v>
       </c>
@@ -4035,11 +5338,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="2"/>
       <c r="B120" s="5"/>
     </row>
-    <row r="121" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="86.4">
       <c r="A121" s="2" t="s">
         <v>150</v>
       </c>
@@ -4065,11 +5368,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="2"/>
       <c r="B122" s="5"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="12" t="s">
         <v>72</v>
       </c>
@@ -4077,11 +5380,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="2"/>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="86.4">
       <c r="A125" s="2" t="s">
         <v>152</v>
       </c>
@@ -4104,7 +5407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="72">
       <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
@@ -4124,11 +5427,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="2"/>
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="15" t="s">
         <v>71</v>
       </c>
@@ -4136,7 +5439,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="12" t="s">
         <v>72</v>
       </c>
@@ -4144,11 +5447,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="2"/>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="129.6">
       <c r="A131" s="2" t="s">
         <v>156</v>
       </c>
@@ -4174,7 +5477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="72">
       <c r="A132" s="2" t="s">
         <v>192</v>
       </c>
@@ -4197,7 +5500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="72">
       <c r="A133" s="2" t="s">
         <v>193</v>
       </c>
@@ -4217,7 +5520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="72">
       <c r="A134" s="2" t="s">
         <v>194</v>
       </c>
@@ -4240,7 +5543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="12" t="s">
         <v>72</v>
       </c>
@@ -4248,11 +5551,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="2"/>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="86.4">
       <c r="A138" s="2" t="s">
         <v>195</v>
       </c>
@@ -4278,11 +5581,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="2"/>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="12" t="s">
         <v>72</v>
       </c>
@@ -4290,11 +5593,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="2"/>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="86.4">
       <c r="A142" s="2" t="s">
         <v>209</v>
       </c>
@@ -4317,7 +5620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="72">
       <c r="A143" s="2" t="s">
         <v>336</v>
       </c>
@@ -4341,4 +5644,882 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F3B5AE-6853-45BE-9186-ED6AB4F75A42}">
+  <dimension ref="A2:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.8">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8">
+      <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.8">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8">
+      <c r="A29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8">
+      <c r="A31" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8">
+      <c r="A32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.8">
+      <c r="A33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.8">
+      <c r="A34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8">
+      <c r="A35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.8">
+      <c r="A36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8">
+      <c r="A37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.8">
+      <c r="A38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.8">
+      <c r="A39" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.8">
+      <c r="A40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.8">
+      <c r="A41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.8">
+      <c r="A42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.8">
+      <c r="A43" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8">
+      <c r="A44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" ht="43.2">
+      <c r="A45" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>